--- a/funds/stocks/天味食品&财务报表同型分析.xlsx
+++ b/funds/stocks/天味食品&财务报表同型分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20603" windowHeight="8495" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20603" windowHeight="8495" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="资产&amp;负债结构分析" sheetId="2" r:id="rId1"/>
@@ -638,14 +638,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.000000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000000_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="180" formatCode="\+0;\-0;0;@"/>
   </numFmts>
   <fonts count="28">
@@ -715,14 +715,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -730,53 +722,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,6 +745,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -812,8 +788,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,11 +819,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -843,18 +843,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -897,19 +897,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,97 +933,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,13 +963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,13 +975,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,7 +1047,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,56 +1180,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1263,8 +1213,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,7 +1273,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1285,10 +1285,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1297,133 +1297,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1467,7 +1467,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1509,7 +1509,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1527,7 +1527,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1539,7 +1539,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1560,7 +1560,7 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2848,7 +2848,7 @@
   <sheetPr/>
   <dimension ref="B2:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4:L20"/>
     </sheetView>
   </sheetViews>
@@ -3314,8 +3314,8 @@
   <sheetPr/>
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:D26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3815,7 +3815,7 @@
         <v>125</v>
       </c>
       <c r="I20" s="46">
-        <v>90.28</v>
+        <v>6.3</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="I26" s="17">
         <f>I25/I20</f>
-        <v>-3.68430178739759</v>
+        <v>-52.7966294232149</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="J31" s="14">
         <f>I31/I20</f>
-        <v>1.09466936198494</v>
+        <v>15.6867857142857</v>
       </c>
     </row>
     <row r="32" spans="7:10">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="J32" s="14">
         <f>I32/I20</f>
-        <v>0.766268553389455</v>
+        <v>10.98075</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="J33" s="14">
         <f>I33/I20</f>
-        <v>2.18933872396987</v>
+        <v>31.3735714285714</v>
       </c>
     </row>
   </sheetData>
